--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Spon2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Spon2-Itgb1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3355466666666667</v>
+        <v>0.8164013333333333</v>
       </c>
       <c r="H2">
-        <v>1.00664</v>
+        <v>2.449204</v>
       </c>
       <c r="I2">
-        <v>0.02388108083384315</v>
+        <v>0.05618115571687973</v>
       </c>
       <c r="J2">
-        <v>0.02388108083384315</v>
+        <v>0.05618115571687973</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>39.27391296610666</v>
+        <v>62.93598963536444</v>
       </c>
       <c r="R2">
-        <v>353.46521669496</v>
+        <v>566.42390671828</v>
       </c>
       <c r="S2">
-        <v>0.007750283931383919</v>
+        <v>0.01350491988614786</v>
       </c>
       <c r="T2">
-        <v>0.00775028393138392</v>
+        <v>0.01350491988614786</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3355466666666667</v>
+        <v>0.8164013333333333</v>
       </c>
       <c r="H3">
-        <v>1.00664</v>
+        <v>2.449204</v>
       </c>
       <c r="I3">
-        <v>0.02388108083384315</v>
+        <v>0.05618115571687973</v>
       </c>
       <c r="J3">
-        <v>0.02388108083384315</v>
+        <v>0.05618115571687973</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
-        <v>34.08484292707556</v>
+        <v>82.93007791898312</v>
       </c>
       <c r="R3">
-        <v>306.76358634368</v>
+        <v>746.370701270848</v>
       </c>
       <c r="S3">
-        <v>0.006726276820683349</v>
+        <v>0.01779528795744154</v>
       </c>
       <c r="T3">
-        <v>0.006726276820683349</v>
+        <v>0.01779528795744154</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3355466666666667</v>
+        <v>0.8164013333333333</v>
       </c>
       <c r="H4">
-        <v>1.00664</v>
+        <v>2.449204</v>
       </c>
       <c r="I4">
-        <v>0.02388108083384315</v>
+        <v>0.05618115571687973</v>
       </c>
       <c r="J4">
-        <v>0.02388108083384315</v>
+        <v>0.05618115571687973</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
-        <v>47.65661573816889</v>
+        <v>115.9508601807858</v>
       </c>
       <c r="R4">
-        <v>428.90954164352</v>
+        <v>1043.557741627072</v>
       </c>
       <c r="S4">
-        <v>0.009404520081775882</v>
+        <v>0.02488094787329034</v>
       </c>
       <c r="T4">
-        <v>0.009404520081775882</v>
+        <v>0.02488094787329034</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>38.635086</v>
       </c>
       <c r="I5">
-        <v>0.9165616424823987</v>
+        <v>0.8862323361798529</v>
       </c>
       <c r="J5">
-        <v>0.9165616424823989</v>
+        <v>0.8862323361798529</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>1507.342252445806</v>
+        <v>992.7867878941134</v>
       </c>
       <c r="R5">
-        <v>13566.08027201225</v>
+        <v>8935.081091047021</v>
       </c>
       <c r="S5">
-        <v>0.2974577666429268</v>
+        <v>0.2130340066505007</v>
       </c>
       <c r="T5">
-        <v>0.2974577666429268</v>
+        <v>0.2130340066505007</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>38.635086</v>
       </c>
       <c r="I6">
-        <v>0.9165616424823987</v>
+        <v>0.8862323361798529</v>
       </c>
       <c r="J6">
-        <v>0.9165616424823989</v>
+        <v>0.8862323361798529</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
         <v>1308.184492752182</v>
@@ -818,10 +818,10 @@
         <v>11773.66043476963</v>
       </c>
       <c r="S6">
-        <v>0.2581561267453188</v>
+        <v>0.2807126236240503</v>
       </c>
       <c r="T6">
-        <v>0.2581561267453189</v>
+        <v>0.2807126236240502</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>38.635086</v>
       </c>
       <c r="I7">
-        <v>0.9165616424823987</v>
+        <v>0.8862323361798529</v>
       </c>
       <c r="J7">
-        <v>0.9165616424823989</v>
+        <v>0.8862323361798529</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
         <v>1829.072406732406</v>
@@ -880,10 +880,10 @@
         <v>16461.65166059165</v>
       </c>
       <c r="S7">
-        <v>0.3609477490941531</v>
+        <v>0.392485705905302</v>
       </c>
       <c r="T7">
-        <v>0.3609477490941532</v>
+        <v>0.392485705905302</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8368233333333333</v>
+        <v>0.8368233333333334</v>
       </c>
       <c r="H8">
         <v>2.51047</v>
       </c>
       <c r="I8">
-        <v>0.05955727668375805</v>
+        <v>0.05758650810326746</v>
       </c>
       <c r="J8">
-        <v>0.05955727668375806</v>
+        <v>0.05758650810326746</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N8">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q8">
-        <v>97.94562135820333</v>
+        <v>64.51031188087778</v>
       </c>
       <c r="R8">
-        <v>881.5105922238299</v>
+        <v>580.5928069279</v>
       </c>
       <c r="S8">
-        <v>0.01932851396847074</v>
+        <v>0.01384274083603392</v>
       </c>
       <c r="T8">
-        <v>0.01932851396847074</v>
+        <v>0.01384274083603392</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8368233333333333</v>
+        <v>0.8368233333333334</v>
       </c>
       <c r="H9">
         <v>2.51047</v>
       </c>
       <c r="I9">
-        <v>0.05955727668375805</v>
+        <v>0.05758650810326746</v>
       </c>
       <c r="J9">
-        <v>0.05955727668375806</v>
+        <v>0.05758650810326746</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q9">
         <v>85.00454544140445</v>
       </c>
       <c r="R9">
-        <v>765.04090897264</v>
+        <v>765.0409089726401</v>
       </c>
       <c r="S9">
-        <v>0.01677473194987376</v>
+        <v>0.01824043099656797</v>
       </c>
       <c r="T9">
-        <v>0.01677473194987376</v>
+        <v>0.01824043099656797</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8368233333333333</v>
+        <v>0.8368233333333334</v>
       </c>
       <c r="H10">
         <v>2.51047</v>
       </c>
       <c r="I10">
-        <v>0.05955727668375805</v>
+        <v>0.05758650810326746</v>
       </c>
       <c r="J10">
-        <v>0.05955727668375806</v>
+        <v>0.05758650810326746</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q10">
         <v>118.8513312725511</v>
@@ -1066,10 +1066,10 @@
         <v>1069.66198145296</v>
       </c>
       <c r="S10">
-        <v>0.02345403076541355</v>
+        <v>0.02550333627066557</v>
       </c>
       <c r="T10">
-        <v>0.02345403076541355</v>
+        <v>0.02550333627066557</v>
       </c>
     </row>
   </sheetData>
